--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,356 +512,486 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>501092</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>87.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>005943</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>工银瑞信聚福混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>29.89</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005944</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001990</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004234</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>519704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票A</t>
+          <t>交银先进制造混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>交银施罗德启明混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>26.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519704</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.62</t>
+          <t>62.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519150</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华优选消费混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005943</t>
+          <t>000991</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信聚福混合A</t>
+          <t>工银瑞信战略转型主题股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>46.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0647</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005944</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信聚福混合C</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>59.38</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>003493</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>申万菱信安鑫优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>91.71</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.51</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>005943</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>工银瑞信聚福混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001531</t>
+          <t>005944</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商安益灵活配置混合</t>
+          <t>工银瑞信聚福混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>002000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>工银瑞信新生利混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002000</t>
+          <t>519150</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信新生利混合</t>
+          <t>新华优选消费混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>003512</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>申万菱信安鑫优选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>162214</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
+          <t>泰达宏利领先中小盘混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>77.58</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>162214</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰达宏利领先中小盘混合</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>007678</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>泰达宏利品牌升级混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005264</t>
+          <t>011473</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国都多策略混合</t>
+          <t>工银瑞信战略转型主题股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72.46</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007678</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰达宏利品牌升级混合A</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007679</t>
+          <t>001531</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰达宏利品牌升级混合C</t>
+          <t>招商安益灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>76.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003493</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合A</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003512</t>
+          <t>005264</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合C</t>
+          <t>国都多策略混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1584,15 +1974,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>88.57</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>007679</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>泰达宏利品牌升级混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010170</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010171</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3044,4 +3045,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3329,4 +3330,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.619999999999999</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.83</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.82</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3417,13 +3504,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1348</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3927,7 +3928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3938,17 +3939,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3958,14 +3979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.68</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3974,14 +4017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.619999999999999</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3990,14 +4055,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.83</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4006,14 +4093,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.82</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4022,13 +4131,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4402,7 +4403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,17 +4414,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4433,14 +4454,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.72</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4449,14 +4492,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.68</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4465,14 +4530,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.619999999999999</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4481,14 +4568,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.83</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4497,14 +4606,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.82</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4513,13 +4644,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>17.52</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>15.72</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>14.68</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>15.83</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>13.82</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.1</v>
       </c>
     </row>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>交银先进制造混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6941</t>
+          <t>3.3261</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发价值领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.04</t>
+          <t>58.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9566</t>
+          <t>2.7010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57.02</t>
+          <t>44.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7084</t>
+          <t>2.2126</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>交银施罗德启明混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.43</t>
+          <t>50.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.60</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.9753</t>
+          <t>1.8122</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>广发睿毅领先混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.98</t>
+          <t>42.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.9492</t>
+          <t>1.6563</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.47</t>
+          <t>90.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3253</t>
+          <t>1.1981</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -894,22 +911,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0803</t>
+          <t>0.9768</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.60</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7062</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -970,26 +987,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4146</t>
+          <t>0.3481</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1008,26 +1025,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2254</t>
+          <t>0.2387</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519767</t>
+          <t>010937</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1848</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1074,32 +1091,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>014963</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>交银先进制造混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1254</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014963</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>交银先进制造混合C</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1192</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>015394</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合C</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0507</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1188,6 +1205,594 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2533,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3539,7 +4144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4583,7 +5188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
+++ b/数据整理/stocks/A股/深证主板/002928-华夏航空.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>15.51</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>17.52</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>15.72</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>14.68</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>9.619999999999999</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>15.83</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>13.82</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,580 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +1250,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>96.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>79.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3261</t>
+          <t>4.3549</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +1288,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.59</t>
+          <t>67.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7010</t>
+          <t>3.3677</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1316,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010936</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合A</t>
+          <t>交银施罗德启明混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.88</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2126</t>
+          <t>2.3900</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,32 +1354,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>010936</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合A</t>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.34</t>
+          <t>43.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.02</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.8122</t>
+          <t>2.2144</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +1402,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.6563</t>
+          <t>2.1282</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -873,22 +1440,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1981</t>
+          <t>1.5556</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -901,36 +1468,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>鹏华精选成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>31.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9768</t>
+          <t>1.3234</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1506,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012449</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合C</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>75.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7683</t>
+          <t>1.2692</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1544,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012420</t>
+          <t>012449</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发价值领先混合C</t>
+          <t>广发睿毅领先混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>24.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3481</t>
+          <t>1.0239</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1582,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013883</t>
+          <t>012420</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合C</t>
+          <t>广发价值领先混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.02</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2387</t>
+          <t>0.5972</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1053,32 +1620,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>013883</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>交银施罗德启明混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1168</t>
+          <t>0.4122</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1091,36 +1658,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014963</t>
+          <t>012528</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银先进制造混合C</t>
+          <t>广发鑫睿一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>95.35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1166</t>
+          <t>0.3797</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1696,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006692</t>
+          <t>014963</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金信消费升级股票A</t>
+          <t>交银先进制造混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>79.54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.2945</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1734,492 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>006693</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>金信消费升级股票C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1266,27 +2289,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>交银先进制造混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6941</t>
+          <t>3.3261</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1304,31 +2327,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发价值领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.04</t>
+          <t>58.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9566</t>
+          <t>2.7010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1347,22 +2370,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57.02</t>
+          <t>44.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7084</t>
+          <t>2.2126</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1375,36 +2398,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>交银施罗德启明混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.43</t>
+          <t>50.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.60</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.9753</t>
+          <t>1.8122</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1413,36 +2436,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>广发睿毅领先混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.98</t>
+          <t>42.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.9492</t>
+          <t>1.6563</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1461,26 +2484,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.47</t>
+          <t>90.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3253</t>
+          <t>1.1981</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1499,22 +2522,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0803</t>
+          <t>0.9768</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1537,26 +2560,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.60</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7062</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1575,26 +2598,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4146</t>
+          <t>0.3481</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1613,26 +2636,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2254</t>
+          <t>0.2387</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1641,36 +2664,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519767</t>
+          <t>010937</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1848</t>
+          <t>0.1168</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1679,32 +2702,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>014963</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>交银先进制造混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1254</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1717,36 +2740,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014963</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>交银先进制造混合C</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1192</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1755,36 +2778,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>015394</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合C</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0507</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1793,6 +2816,594 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +3877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2854,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3138,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4144,7 +5755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5186,554 +6797,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519704</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银先进制造混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2795</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5309</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501092</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2488</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1720</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5956</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4953</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2579</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1545</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001990</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005943</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005944</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004234</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>